--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail1 Features.xlsx
@@ -1827,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5346282452189</v>
+        <v>1.552868331111452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.490613287328558</v>
@@ -1916,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.533091078541301</v>
+        <v>1.553165844147729</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.419190778880029</v>
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.528479085611594</v>
+        <v>1.548157485485343</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.456144419559405</v>
@@ -2094,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550927406248106</v>
+        <v>1.561812281644472</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.311960125554183</v>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.564789446809656</v>
+        <v>1.577377439349153</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.176642556220412</v>
@@ -2272,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.638091509015336</v>
+        <v>1.644487694583732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.263393989897533</v>
@@ -2361,7 +2361,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.661302944004703</v>
+        <v>1.667369097339842</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.460954367374948</v>
@@ -2450,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.656632426873612</v>
+        <v>1.659900738665192</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.410546995652616</v>
@@ -2539,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647918269094986</v>
+        <v>1.650922484464054</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.389988736026538</v>
@@ -2628,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633299884948082</v>
+        <v>1.631367876932795</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.284159529231069</v>
@@ -2717,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.556003084492303</v>
+        <v>1.55902595684343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.210962943498302</v>
@@ -2806,7 +2806,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546373054703017</v>
+        <v>1.549280458204942</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.217122276303575</v>
@@ -2895,7 +2895,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.503797041894978</v>
+        <v>1.506810160405656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.174816216919097</v>
@@ -2984,7 +2984,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.529057389039133</v>
+        <v>1.527753605366327</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.21095750014608</v>
@@ -3073,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524255988362075</v>
+        <v>1.518925466176783</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.02206084535796</v>
@@ -3162,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543948916417165</v>
+        <v>1.537651499565132</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.067172259740055</v>
@@ -3251,7 +3251,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.493407364167082</v>
+        <v>1.490402321580463</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.115585212811638</v>
@@ -3340,7 +3340,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.454554482065991</v>
+        <v>1.446582689642762</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.133265422631843</v>
@@ -3429,7 +3429,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.422685702477603</v>
+        <v>1.427182594838392</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.164304121150384</v>
@@ -3518,7 +3518,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.432519320950721</v>
+        <v>1.436827362179767</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.175428611121777</v>
@@ -3607,7 +3607,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.408760899718454</v>
+        <v>1.412524460420644</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.166071217529281</v>
@@ -3696,7 +3696,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.433136737264362</v>
+        <v>1.434963671177324</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.177480472228717</v>
@@ -3785,7 +3785,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.413085666193541</v>
+        <v>1.416433314908075</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.178631199855157</v>
@@ -3874,7 +3874,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.413246308767086</v>
+        <v>1.415779905419726</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.119224317730114</v>
@@ -3963,7 +3963,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416110470821609</v>
+        <v>1.421437051884028</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.268292877897616</v>
@@ -4052,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.463831091426366</v>
+        <v>1.464210688251167</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.356468296225853</v>
@@ -4141,7 +4141,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471372834710899</v>
+        <v>1.473149988181906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.217111463635408</v>
@@ -4230,7 +4230,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.497390261066902</v>
+        <v>1.497734516959682</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.325387734866422</v>
@@ -4319,7 +4319,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.5145138458745</v>
+        <v>1.516378470861679</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.364838727036115</v>
@@ -4408,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.53047952558105</v>
+        <v>1.530671406752638</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.442685891851377</v>
@@ -4497,7 +4497,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.505727168685899</v>
+        <v>1.506573904453459</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.420588079928792</v>
@@ -4586,7 +4586,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.542358027212007</v>
+        <v>1.539476998861365</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.270616531468756</v>
@@ -4675,7 +4675,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.585106406043951</v>
+        <v>1.575660383704831</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.324444671642293</v>
@@ -4764,7 +4764,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.548538243457475</v>
+        <v>1.542982575956854</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.250615029101011</v>
@@ -4853,7 +4853,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529317158650952</v>
+        <v>1.525040054046395</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.357144936988094</v>
@@ -4942,7 +4942,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.558567938391657</v>
+        <v>1.551089357559629</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.313352022669605</v>
@@ -5031,7 +5031,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.556902307275358</v>
+        <v>1.541971864680303</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.300119123632638</v>
@@ -5120,7 +5120,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535996743680068</v>
+        <v>1.52293769265096</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.225186241898879</v>
@@ -5209,7 +5209,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534100301693148</v>
+        <v>1.52030619410199</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.290215167070145</v>
@@ -5298,7 +5298,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516248382599861</v>
+        <v>1.498397719134548</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.311378241327791</v>
@@ -5387,7 +5387,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.50239843069507</v>
+        <v>1.494521197320641</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.322635205464064</v>
@@ -5476,7 +5476,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.500459278408998</v>
+        <v>1.4892624552672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.269430975599976</v>
@@ -5762,7 +5762,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.681087109807711</v>
+        <v>1.674896611633328</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.574754695389621</v>
@@ -5851,7 +5851,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.682063387717223</v>
+        <v>1.674850168465471</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.468303194247903</v>
@@ -5940,7 +5940,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.698395283814926</v>
+        <v>1.699737125398784</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.596391304026298</v>
@@ -6029,7 +6029,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.711072215080551</v>
+        <v>1.704610439186082</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.815935488677245</v>
@@ -6118,7 +6118,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.714032795103878</v>
+        <v>1.703959226962603</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.827391738473177</v>
@@ -6207,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.713561779003344</v>
+        <v>1.696547280798244</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.720951873058876</v>
@@ -6296,7 +6296,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.713656058215634</v>
+        <v>1.696769186978196</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.806102585072215</v>
@@ -6385,7 +6385,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.684796314051225</v>
+        <v>1.675216822229922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.97986825807477</v>
@@ -6474,7 +6474,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686242360551792</v>
+        <v>1.677014389021677</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.028438274544334</v>
@@ -6563,7 +6563,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.680070387630953</v>
+        <v>1.6659399479037</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.1532605297756</v>
@@ -6652,7 +6652,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609965993542935</v>
+        <v>1.60333035502387</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.400547904561936</v>
@@ -6741,7 +6741,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609702034704879</v>
+        <v>1.600448373170492</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.394463320033615</v>
@@ -6830,7 +6830,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603945935343877</v>
+        <v>1.595497020365198</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.36214954199937</v>
@@ -6919,7 +6919,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594341196207058</v>
+        <v>1.584191366394681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.369376218784262</v>
@@ -7008,7 +7008,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594373571349703</v>
+        <v>1.585089729800066</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.228344728926763</v>
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.600353966552226</v>
+        <v>1.587064010586307</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.222056865553243</v>
@@ -7186,7 +7186,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.590535880810648</v>
+        <v>1.574162611713494</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.285581466509316</v>
@@ -7275,7 +7275,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.576329745292392</v>
+        <v>1.559378779643515</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.295921067625233</v>
@@ -7364,7 +7364,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550887326164024</v>
+        <v>1.540269785329913</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.268800929958481</v>
@@ -7453,7 +7453,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.541487719210572</v>
+        <v>1.530307899940795</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.282587052924136</v>
@@ -7542,7 +7542,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544226572861804</v>
+        <v>1.525351372850361</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.217140399724134</v>
@@ -7631,7 +7631,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.540613432995158</v>
+        <v>1.521876746301019</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.197275752925083</v>
@@ -7720,7 +7720,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536884802075372</v>
+        <v>1.513448762479015</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.226594347734862</v>
@@ -7809,7 +7809,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541052556825553</v>
+        <v>1.511846709742906</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.171494795804356</v>
@@ -7898,7 +7898,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553426601428178</v>
+        <v>1.530273027959612</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.343184576299646</v>
@@ -7987,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.636839825782455</v>
+        <v>1.5957179418604</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.722351379791643</v>
@@ -8076,7 +8076,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643339298576028</v>
+        <v>1.602201099014558</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.554616498566882</v>
@@ -8165,7 +8165,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643448646396584</v>
+        <v>1.598554036675685</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.755417499819213</v>
@@ -8254,7 +8254,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669015722279488</v>
+        <v>1.625317189321269</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.090842124616587</v>
@@ -8343,7 +8343,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677777698050681</v>
+        <v>1.644066653199191</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.076758497093888</v>
@@ -8432,7 +8432,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.671875089634755</v>
+        <v>1.635440054128081</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.144407383663355</v>
@@ -8521,7 +8521,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.68933007168399</v>
+        <v>1.65198999894305</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.155001334447638</v>
@@ -8610,7 +8610,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.678095044623395</v>
+        <v>1.647130523933253</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.1615774518454</v>
@@ -8699,7 +8699,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686617463246749</v>
+        <v>1.653797578390381</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.298481117261235</v>
@@ -8788,7 +8788,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.688212992026632</v>
+        <v>1.656587242651647</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.379721292880074</v>
@@ -8877,7 +8877,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.691244036227898</v>
+        <v>1.665687404095062</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.339078614879938</v>
@@ -8966,7 +8966,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.670803816519211</v>
+        <v>1.646481982790138</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.194190312506004</v>
@@ -9055,7 +9055,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660970420454361</v>
+        <v>1.628968451023555</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.278320112815148</v>
@@ -9144,7 +9144,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.657777200734634</v>
+        <v>1.630067796039342</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.337081871801142</v>
@@ -9233,7 +9233,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651358833704444</v>
+        <v>1.624585780977867</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.304077775261368</v>
@@ -9322,7 +9322,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.64658681276856</v>
+        <v>1.626813224411043</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.322663754623302</v>
@@ -9411,7 +9411,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.638786221136163</v>
+        <v>1.622129869309608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.20163753633233</v>
@@ -9697,7 +9697,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.783908707952046</v>
+        <v>1.749207361616114</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.146197478984894</v>
@@ -9786,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.784089007866123</v>
+        <v>1.749073576570116</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.1224856319598</v>
@@ -9875,7 +9875,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.781786261381444</v>
+        <v>1.742650840835497</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.201282184428524</v>
@@ -9964,7 +9964,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.785455241461419</v>
+        <v>1.7363556546851</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.070734596131683</v>
@@ -10053,7 +10053,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.787467189588432</v>
+        <v>1.745039558681775</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.046575702084687</v>
@@ -10142,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.798692323795571</v>
+        <v>1.753211058237819</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.291815641469149</v>
@@ -10231,7 +10231,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.806473160140144</v>
+        <v>1.757713683215903</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.766935854649215</v>
@@ -10320,7 +10320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.799735068035342</v>
+        <v>1.747897709353641</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.277954813141265</v>
@@ -10409,7 +10409,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.795008621276294</v>
+        <v>1.743523081587789</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.667375730806193</v>
@@ -10498,7 +10498,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.791594911582741</v>
+        <v>1.734974176170311</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.700538440731668</v>
@@ -10587,7 +10587,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.74212209615103</v>
+        <v>1.695090951548099</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.757166570169237</v>
@@ -10676,7 +10676,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.74136130490496</v>
+        <v>1.693185112363947</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.101954191859792</v>
@@ -10765,7 +10765,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.730227463181092</v>
+        <v>1.683162826669682</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.841410493503201</v>
@@ -10854,7 +10854,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.72184612380172</v>
+        <v>1.673878650854473</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.902550611130878</v>
@@ -10943,7 +10943,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.721081754068215</v>
+        <v>1.676414747136091</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.585007352615108</v>
@@ -11032,7 +11032,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.723476711179799</v>
+        <v>1.679013097142029</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.660031219774546</v>
@@ -11121,7 +11121,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718876648688718</v>
+        <v>1.673538909185592</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.820062948350165</v>
@@ -11210,7 +11210,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.705671623673858</v>
+        <v>1.660803926969993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.007274123170889</v>
@@ -11299,7 +11299,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.697866889225318</v>
+        <v>1.666178609887446</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.849077199794586</v>
@@ -11388,7 +11388,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.699305471639228</v>
+        <v>1.66916321494744</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.855876220305221</v>
@@ -11477,7 +11477,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.692287951401827</v>
+        <v>1.659241840290737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.737293767879055</v>
@@ -11566,7 +11566,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.689880232163497</v>
+        <v>1.659625834067859</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.987335225333642</v>
@@ -11655,7 +11655,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68633208896354</v>
+        <v>1.65625120028867</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.063994105177238</v>
@@ -11744,7 +11744,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.685045967146207</v>
+        <v>1.645848490780971</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.7298031183426</v>
@@ -11833,7 +11833,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.679965870912232</v>
+        <v>1.645983314306835</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.098799407980682</v>
@@ -11922,7 +11922,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.729622444692372</v>
+        <v>1.68588371730587</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.16100964253595</v>
@@ -12011,7 +12011,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723371481183685</v>
+        <v>1.681584025351708</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.655270354914436</v>
@@ -12100,7 +12100,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.721880063189544</v>
+        <v>1.673996594145658</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.749171653603129</v>
@@ -12189,7 +12189,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737886999727609</v>
+        <v>1.686049307354579</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.806101160195669</v>
@@ -12278,7 +12278,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750187166168842</v>
+        <v>1.698517843961106</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.895342122902541</v>
@@ -12367,7 +12367,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.745401376899354</v>
+        <v>1.700217182390791</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.061104633332295</v>
@@ -12456,7 +12456,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.757480986189761</v>
+        <v>1.713170716219017</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.977538121408955</v>
@@ -12545,7 +12545,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.765132972033264</v>
+        <v>1.723793981521385</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.92559294117325</v>
@@ -12634,7 +12634,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.759300959714487</v>
+        <v>1.712583473368636</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.226710654165547</v>
@@ -12723,7 +12723,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.754188472560439</v>
+        <v>1.704870119920176</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.953712923107265</v>
@@ -12812,7 +12812,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.757168010407699</v>
+        <v>1.70726179444245</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.975326230198671</v>
@@ -12901,7 +12901,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.755581170128389</v>
+        <v>1.705810155819762</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.853984281098323</v>
@@ -12990,7 +12990,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.746406890836012</v>
+        <v>1.690063387328222</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.852485387548728</v>
@@ -13079,7 +13079,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749151817405854</v>
+        <v>1.696100530886822</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.907475958585455</v>
@@ -13168,7 +13168,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.745556004653757</v>
+        <v>1.692507616481813</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.974378938880656</v>
@@ -13257,7 +13257,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.737781722772001</v>
+        <v>1.685452640168513</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.834800159419518</v>
@@ -13346,7 +13346,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.742902389192268</v>
+        <v>1.686573393343561</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.384932550627366</v>
@@ -13632,7 +13632,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.801900880850141</v>
+        <v>1.758485919968459</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.789172574200026</v>
@@ -13721,7 +13721,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.798808930277662</v>
+        <v>1.756210882722627</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.792915660872309</v>
@@ -13810,7 +13810,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.806459683051366</v>
+        <v>1.759438864867709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.926905878227671</v>
@@ -13899,7 +13899,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.810051273251754</v>
+        <v>1.74221302513188</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.994563571918606</v>
@@ -13988,7 +13988,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.828674713626638</v>
+        <v>1.754015672274714</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.499082561204187</v>
@@ -14077,7 +14077,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.845457571076048</v>
+        <v>1.765951191056419</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.271461278989662</v>
@@ -14166,7 +14166,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.847425888051915</v>
+        <v>1.767516288346458</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.364758785626174</v>
@@ -14255,7 +14255,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.844258162244527</v>
+        <v>1.765916690702739</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.835423057075534</v>
@@ -14344,7 +14344,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.838856406133158</v>
+        <v>1.756911448624654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.807273511724466</v>
@@ -14433,7 +14433,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.828029710471902</v>
+        <v>1.737324797199514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.595228445992452</v>
@@ -14522,7 +14522,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.801805941725247</v>
+        <v>1.712339072953642</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.247975549765058</v>
@@ -14611,7 +14611,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.79914914288555</v>
+        <v>1.710136065909927</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.566371556763985</v>
@@ -14700,7 +14700,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.769371748292439</v>
+        <v>1.684859050885261</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.324900773220645</v>
@@ -14789,7 +14789,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.769638285853141</v>
+        <v>1.687723777753581</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.359814763679297</v>
@@ -14878,7 +14878,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.761593860821247</v>
+        <v>1.67967967178216</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.364206511080378</v>
@@ -14967,7 +14967,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.757725240926168</v>
+        <v>1.672667841680965</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.012154985902477</v>
@@ -15056,7 +15056,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.759340773328283</v>
+        <v>1.674553960933175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.180996321848632</v>
@@ -15145,7 +15145,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753036168653122</v>
+        <v>1.673838732271265</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.063514739918459</v>
@@ -15234,7 +15234,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.739947448323721</v>
+        <v>1.685396982577509</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.868640130733055</v>
@@ -15323,7 +15323,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.735098260386807</v>
+        <v>1.68355405970496</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.005216745348578</v>
@@ -15412,7 +15412,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.732929173164104</v>
+        <v>1.683701568272937</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.027760061682395</v>
@@ -15501,7 +15501,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73716215154223</v>
+        <v>1.68901683401812</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.848781951981391</v>
@@ -15590,7 +15590,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.742529940355174</v>
+        <v>1.693455902436034</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.904163994011441</v>
@@ -15679,7 +15679,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.737937222012298</v>
+        <v>1.685784010392097</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.932061612121298</v>
@@ -15768,7 +15768,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.748699462251426</v>
+        <v>1.702374170064433</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.771472286070862</v>
@@ -15857,7 +15857,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.779131436230271</v>
+        <v>1.732387994079547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.809907877284865</v>
@@ -15946,7 +15946,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.757411532662643</v>
+        <v>1.716299802407451</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.807713587261204</v>
@@ -16035,7 +16035,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.764540432099159</v>
+        <v>1.721597653822601</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.735065865458371</v>
@@ -16124,7 +16124,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.770467142301022</v>
+        <v>1.72066510453791</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.738792088486959</v>
@@ -16213,7 +16213,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.774889429305125</v>
+        <v>1.725819138200559</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.850295689157699</v>
@@ -16302,7 +16302,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.776482021638918</v>
+        <v>1.727115740226288</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.905336368308428</v>
@@ -16391,7 +16391,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.771240991602134</v>
+        <v>1.723344801085292</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.865703547806827</v>
@@ -16480,7 +16480,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.774755256906762</v>
+        <v>1.7211767108386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.822763242631695</v>
@@ -16569,7 +16569,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.796197827686159</v>
+        <v>1.733470820454481</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.296182078058922</v>
@@ -16658,7 +16658,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.792656824156464</v>
+        <v>1.735887484482362</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.154946837865984</v>
@@ -16747,7 +16747,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.796752770911288</v>
+        <v>1.736831781347312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.127763018176841</v>
@@ -16836,7 +16836,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.798283769213642</v>
+        <v>1.737275365637829</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.20152931364676</v>
@@ -16925,7 +16925,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.788626237945117</v>
+        <v>1.71815580152949</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.213001423592604</v>
@@ -17014,7 +17014,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.786561829144488</v>
+        <v>1.724529308349816</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.26483587858197</v>
@@ -17103,7 +17103,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.78254019330973</v>
+        <v>1.72055239128849</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.331091577676279</v>
@@ -17192,7 +17192,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.775703563387983</v>
+        <v>1.71732383624769</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.124467948462656</v>
@@ -17281,7 +17281,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.791468918420421</v>
+        <v>1.727876744042874</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.0504125394438</v>
@@ -17567,7 +17567,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568514799691511</v>
+        <v>1.571851542716593</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.50652875295602</v>
@@ -17656,7 +17656,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565660930567775</v>
+        <v>1.567761106188133</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.535798998751449</v>
@@ -17745,7 +17745,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576109433013793</v>
+        <v>1.585175722930737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.476885766712634</v>
@@ -17834,7 +17834,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575879092107858</v>
+        <v>1.575899094225509</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.530506185574593</v>
@@ -17923,7 +17923,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.608640551278514</v>
+        <v>1.600548086698653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.542766128069491</v>
@@ -18012,7 +18012,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.61634349251621</v>
+        <v>1.600075197844847</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.403066075466113</v>
@@ -18101,7 +18101,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625132891334286</v>
+        <v>1.604066532905666</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.741894407037724</v>
@@ -18190,7 +18190,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612261215717981</v>
+        <v>1.587652424807291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.556106850722712</v>
@@ -18279,7 +18279,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.622337810113094</v>
+        <v>1.596212141994529</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.640630724014985</v>
@@ -18368,7 +18368,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622487221970911</v>
+        <v>1.59278765136989</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.657190106615132</v>
@@ -18457,7 +18457,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.568448056210725</v>
+        <v>1.544925611968551</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.36135441392446</v>
@@ -18546,7 +18546,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573712976172218</v>
+        <v>1.545567664501715</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.494422481935613</v>
@@ -18635,7 +18635,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560353745254334</v>
+        <v>1.526546739915162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.411655702169945</v>
@@ -18724,7 +18724,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552691076677</v>
+        <v>1.522198001836158</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.294978376069494</v>
@@ -18813,7 +18813,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566532893528496</v>
+        <v>1.538218549024421</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.228551454016997</v>
@@ -18902,7 +18902,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583743619680426</v>
+        <v>1.548759391514582</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.194956435200777</v>
@@ -18991,7 +18991,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.589776336918931</v>
+        <v>1.554186366030669</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.270221673500957</v>
@@ -19080,7 +19080,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.590169356073917</v>
+        <v>1.553491529748234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.360838560841657</v>
@@ -19169,7 +19169,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584526164013431</v>
+        <v>1.55597378305169</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.406616775068452</v>
@@ -19258,7 +19258,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591569816357625</v>
+        <v>1.56287521045962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.364935502452286</v>
@@ -19347,7 +19347,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60446226903353</v>
+        <v>1.574380924775022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.315649485648497</v>
@@ -19436,7 +19436,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.605706859485455</v>
+        <v>1.576267029727266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.273461607751271</v>
@@ -19525,7 +19525,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.611155488363225</v>
+        <v>1.581971877483586</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.368970316336067</v>
@@ -19614,7 +19614,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620598702696943</v>
+        <v>1.580381216717033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.224525750298112</v>
@@ -19703,7 +19703,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625837297555855</v>
+        <v>1.589607469825931</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.444761144590173</v>
@@ -19792,7 +19792,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.706716460337855</v>
+        <v>1.65071041950973</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.251632316886964</v>
@@ -19881,7 +19881,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.699719203457327</v>
+        <v>1.638590800138402</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.889503199070024</v>
@@ -19970,7 +19970,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.691797958646897</v>
+        <v>1.632522584910461</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.329628250571702</v>
@@ -20059,7 +20059,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709601928881883</v>
+        <v>1.638552167482103</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.254780659563116</v>
@@ -20148,7 +20148,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.704106146613762</v>
+        <v>1.633243157082776</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.397087893020916</v>
@@ -20237,7 +20237,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688544435462805</v>
+        <v>1.619919680191505</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.341007924821132</v>
@@ -20326,7 +20326,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.681290548545183</v>
+        <v>1.610537114037413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.196328279769989</v>
@@ -20415,7 +20415,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.65258753370912</v>
+        <v>1.58462176311353</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.899001678765124</v>
@@ -20504,7 +20504,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.639935643705695</v>
+        <v>1.576983638664926</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.136160579565629</v>
@@ -20593,7 +20593,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.635855942121145</v>
+        <v>1.572090987170803</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.215830016567046</v>
@@ -20682,7 +20682,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.625767806343056</v>
+        <v>1.56670457450083</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.158489469799071</v>
@@ -20771,7 +20771,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605026195256729</v>
+        <v>1.549394078941222</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.754594556792068</v>
@@ -20860,7 +20860,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601733843750119</v>
+        <v>1.541924267019202</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.7143519320141</v>
@@ -20949,7 +20949,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.585414642618103</v>
+        <v>1.532905241767152</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.856835141039108</v>
@@ -21038,7 +21038,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583718534930233</v>
+        <v>1.534373192173432</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.752790847350144</v>
@@ -21127,7 +21127,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58211046331281</v>
+        <v>1.537129060502067</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.92130274971744</v>
@@ -21216,7 +21216,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585175014913902</v>
+        <v>1.543771021261259</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.606500673601763</v>
@@ -21502,7 +21502,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530737622353308</v>
+        <v>1.55684659991813</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.410937105227109</v>
@@ -21591,7 +21591,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.532533401994012</v>
+        <v>1.55841755406662</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.358129240876345</v>
@@ -21680,7 +21680,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.531664628289998</v>
+        <v>1.557085022575085</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.357842365131848</v>
@@ -21769,7 +21769,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573823422768667</v>
+        <v>1.591010731556322</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.2716592970203</v>
@@ -21858,7 +21858,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.582186880072333</v>
+        <v>1.604707487584774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.199381895728005</v>
@@ -21947,7 +21947,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.645441311129686</v>
+        <v>1.659297223114693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.495203894853737</v>
@@ -22036,7 +22036,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678370963871073</v>
+        <v>1.683078904910575</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.656638523032334</v>
@@ -22125,7 +22125,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661820954931478</v>
+        <v>1.665368103067101</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.361663830456842</v>
@@ -22214,7 +22214,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655261517787496</v>
+        <v>1.652313438488652</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.363342319914362</v>
@@ -22303,7 +22303,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.642289330759404</v>
+        <v>1.637230467161742</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.34675262680564</v>
@@ -22392,7 +22392,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607561229287649</v>
+        <v>1.603175444710053</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.371287309444101</v>
@@ -22481,7 +22481,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607579723871703</v>
+        <v>1.600192860210619</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.373823767632153</v>
@@ -22570,7 +22570,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592593163551924</v>
+        <v>1.580627262071366</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.282915442375141</v>
@@ -22659,7 +22659,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.631090261670104</v>
+        <v>1.610568317995559</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.414663118738316</v>
@@ -22748,7 +22748,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630491885810614</v>
+        <v>1.60656068260346</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.157428438757271</v>
@@ -22837,7 +22837,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669675578818804</v>
+        <v>1.639304491100934</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.335341044093095</v>
@@ -22926,7 +22926,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.6076148419586</v>
+        <v>1.587308574335132</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.348784373106202</v>
@@ -23015,7 +23015,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553394325703318</v>
+        <v>1.529010817795303</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.33929311340503</v>
@@ -23104,7 +23104,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.501976585031152</v>
+        <v>1.487344142599031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.328345288802811</v>
@@ -23193,7 +23193,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.501666967851725</v>
+        <v>1.4849182937024</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.388957068437197</v>
@@ -23282,7 +23282,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.460276910422724</v>
+        <v>1.450011143210561</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.372833421735169</v>
@@ -23371,7 +23371,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.481857829719342</v>
+        <v>1.469119234529411</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.422722929296256</v>
@@ -23460,7 +23460,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.455822837413774</v>
+        <v>1.445726247641611</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.351786789069342</v>
@@ -23549,7 +23549,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.445271136293396</v>
+        <v>1.433544957885793</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.326152523136428</v>
@@ -23638,7 +23638,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443605818018892</v>
+        <v>1.433308546897839</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.277566588194332</v>
@@ -23727,7 +23727,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.462628315384413</v>
+        <v>1.45352699986257</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.33186212167842</v>
@@ -23816,7 +23816,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.425297583433107</v>
+        <v>1.419380504843533</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.230823700866166</v>
@@ -23905,7 +23905,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.443099842078685</v>
+        <v>1.437659322028413</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.26268893764353</v>
@@ -23994,7 +23994,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.44607266800581</v>
+        <v>1.439817261330011</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.276689896680784</v>
@@ -24083,7 +24083,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.449603113648453</v>
+        <v>1.444124625423888</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.219758925354255</v>
@@ -24172,7 +24172,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.423963978519181</v>
+        <v>1.418086390299841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.225173534303594</v>
@@ -24261,7 +24261,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.452443924078588</v>
+        <v>1.446622688357862</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.158349386376404</v>
@@ -24350,7 +24350,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.498517825870986</v>
+        <v>1.492220359735108</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.131902276447659</v>
@@ -24439,7 +24439,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.465083622710037</v>
+        <v>1.465637526345003</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.290262520350024</v>
@@ -24528,7 +24528,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.456645069304952</v>
+        <v>1.462623984891012</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.268218126032867</v>
@@ -24617,7 +24617,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.496426811567327</v>
+        <v>1.500844323019517</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293407370220345</v>
@@ -24706,7 +24706,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.508399248191944</v>
+        <v>1.507501868833617</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.219018978625089</v>
@@ -24795,7 +24795,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.495521323680339</v>
+        <v>1.495235737756966</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.183981975893447</v>
@@ -24884,7 +24884,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.490658835329951</v>
+        <v>1.494973533752528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.283700349496824</v>
@@ -24973,7 +24973,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478319247173221</v>
+        <v>1.473040477114698</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.281943278203352</v>
@@ -25062,7 +25062,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.470300317958403</v>
+        <v>1.472840714810781</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.245398695082776</v>
@@ -25151,7 +25151,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.503576510857381</v>
+        <v>1.503851096556338</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.252250265770745</v>
